--- a/ProcesosIndustriales/Model/t1_confection/A2_Structure_Lists.xlsx
+++ b/ProcesosIndustriales/Model/t1_confection/A2_Structure_Lists.xlsx
@@ -79,10 +79,10 @@
     <t>E5_CEM_PRODCEM_PROD</t>
   </si>
   <si>
+    <t>CO2e_CEM</t>
+  </si>
+  <si>
     <t>CO2e_RESTO</t>
-  </si>
-  <si>
-    <t>CO2e_CEM</t>
   </si>
   <si>
     <t>ECU</t>
